--- a/va_facility_data_2025-02-20/Santa Fe Springs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Santa%20Fe%20Springs%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Santa Fe Springs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Santa%20Fe%20Springs%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb19943b0b94a43809727734e0b6add93"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0096af24a1d6449c8d7cc3fb43ce5752"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcaa0a6d8013e4f8fbf6317a09c08ae50"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4f2f3f528cf84cb29ef4c6fad3bceef6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raff4d256ca5f424cb2fdf9c5485b184b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R754fe9cc9b8445e2b7cf79db39b82a9e"/>
   </x:sheets>
 </x:workbook>
 </file>
